--- a/slang_report.xlsx
+++ b/slang_report.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1760" yWindow="2540" windowWidth="25600" windowHeight="14200" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="580" windowWidth="25600" windowHeight="14200" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>happy</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -53,18 +53,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>test</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>train</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>test</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>NTUA</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -78,6 +70,18 @@
   </si>
   <si>
     <t>(percent)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dev</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dev</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -151,9 +155,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
@@ -434,160 +443,168 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="10.83203125" style="1"/>
+    <col min="3" max="3" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3048</v>
+      </c>
+      <c r="D3" s="1">
+        <v>381</v>
+      </c>
+      <c r="E3" s="1">
+        <v>993</v>
+      </c>
+      <c r="F3" s="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>3048</v>
-      </c>
-      <c r="D3">
-        <v>381</v>
-      </c>
-      <c r="E3">
-        <v>993</v>
-      </c>
-      <c r="F3">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
+      <c r="E6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>14948</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>2099</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="2">
         <f>C7/B7</f>
         <v>0.14042012309339041</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>555</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="2">
         <f>E7/B7</f>
         <v>3.7128712871287127E-2</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>4243</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>601</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="2">
         <f t="shared" ref="D8:D10" si="0">C8/B8</f>
         <v>0.14164506245580957</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <v>120</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="2">
         <f t="shared" ref="F8:F10" si="1">E8/B8</f>
         <v>2.8281876031110063E-2</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>5463</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>540</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="2">
         <f t="shared" si="0"/>
         <v>9.8846787479406922E-2</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <v>121</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="2">
         <f t="shared" si="1"/>
         <v>2.2149002379644882E-2</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>5506</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>628</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="2">
         <f t="shared" si="0"/>
         <v>0.11405739193606974</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="1">
         <v>155</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="2">
         <f t="shared" si="1"/>
         <v>2.8151107882310206E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I18" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>